--- a/Project_Management/Sprint2/Scrum Board.xlsx
+++ b/Project_Management/Sprint2/Scrum Board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A565F-80D6-4F71-A024-69DAEC748CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBF217-6DBD-4C1C-9E7D-A92FB164D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Backlog:</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Decompor os Epics em User Stories mais específicas</t>
+  </si>
+  <si>
+    <t>Analisar o código dado</t>
+  </si>
+  <si>
+    <t>Perceber funcionalidades do FreeCol</t>
+  </si>
+  <si>
+    <t>Jogar Freecol</t>
   </si>
 </sst>
 </file>
@@ -449,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +496,19 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">

--- a/Project_Management/Sprint2/Scrum Board.xlsx
+++ b/Project_Management/Sprint2/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBF217-6DBD-4C1C-9E7D-A92FB164D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09E670-ECB9-4795-B680-207BBA1AAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,22 +493,24 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">

--- a/Project_Management/Sprint2/Scrum Board.xlsx
+++ b/Project_Management/Sprint2/Scrum Board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC09E670-ECB9-4795-B680-207BBA1AAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FE890-A450-4635-BD30-64D1106DCA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,17 +493,11 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -515,6 +509,14 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
